--- a/기획서/기획서 및 발표자료/스핀그로우_기획서(최종)-건희수정필요.xlsx
+++ b/기획서/기획서 및 발표자료/스핀그로우_기획서(최종)-건희수정필요.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\08Extra\유니티 게임프로젝트\NoJump\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\08Extra\유니티 게임프로젝트\NoJump\기획서\기획서 및 발표자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64BEFDF-6AE8-4DF7-A017-D0D79AAF4DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FD6C1-6E3F-4912-B168-F2767086E844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="316">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1016,19 +1016,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>③ 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 플레이 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음량, 마우스 감도 등 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1475,7 +1467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -2396,6 +2388,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2405,7 +2442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2628,6 +2665,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2724,6 +2800,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2736,69 +2836,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2840,76 +2916,76 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2919,6 +2995,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2928,49 +3091,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2985,13 +3157,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3003,143 +3178,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3823,13 +3872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>13161</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>213359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>17520</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3863,25 +3912,96 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647828</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="순서도: 연결자 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE4FBF2-A467-4E3D-8333-3278E0CCF2AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3063240" y="6720840"/>
+          <a:ext cx="266828" cy="254020"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>671159</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5163</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88719</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>216773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
+      <xdr:colOff>73478</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>209751</xdr:rowOff>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F3270F-D106-2E7C-0460-C77806BBBDBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F656A718-1C7E-67D8-A18B-7AECC9AE7C38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3897,8 +4017,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="671159" y="229281"/>
-          <a:ext cx="6061335" cy="3342235"/>
+          <a:off x="763633" y="216773"/>
+          <a:ext cx="6058988" cy="3209505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3909,16 +4029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215537</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175388</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33040</xdr:rowOff>
+      <xdr:colOff>486719</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3933,8 +4053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1920240" y="2430780"/>
-          <a:ext cx="266828" cy="254020"/>
+          <a:off x="2227217" y="2905396"/>
+          <a:ext cx="271182" cy="250754"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3980,16 +4100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>613955</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>91568</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>55900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214577</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>178908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4004,8 +4124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3177540" y="2453640"/>
-          <a:ext cx="266828" cy="254020"/>
+          <a:off x="5978435" y="370114"/>
+          <a:ext cx="271182" cy="250754"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -4038,148 +4158,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7748</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="순서도: 연결자 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF9F648-635C-4BD7-B8E8-D7A9CDD1CFEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4434840" y="2461260"/>
-          <a:ext cx="266828" cy="254020"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647828</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="순서도: 연결자 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE4FBF2-A467-4E3D-8333-3278E0CCF2AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3063240" y="6720840"/>
-          <a:ext cx="266828" cy="254020"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -7734,28 +7712,28 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
     </row>
     <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="118"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="99"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
@@ -7774,10 +7752,10 @@
       <c r="B8" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="105"/>
+      <c r="D8" s="118"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="49" t="s">
@@ -7792,58 +7770,58 @@
       <c r="B10" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="105"/>
+      <c r="D10" s="118"/>
     </row>
     <row r="11" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="104"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="N15" s="48"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -7854,190 +7832,190 @@
       <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="91"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B18" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
+      <c r="B18" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="26"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
-      <c r="M26" s="83" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="M26" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83" t="s">
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
-      <c r="M27" s="83" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="M27" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
     </row>
     <row r="29" spans="1:22" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
     </row>
     <row r="51" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="97"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
@@ -8158,13 +8136,13 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="85"/>
+      <c r="D57" s="98"/>
       <c r="E57" s="14" t="s">
         <v>21</v>
       </c>
@@ -8181,9 +8159,9 @@
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="89"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="87"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="7" t="s">
         <v>22</v>
       </c>
@@ -8256,21 +8234,21 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="20" t="s">
         <v>58</v>
       </c>
@@ -8288,10 +8266,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="20">
         <v>10</v>
       </c>
@@ -8309,10 +8287,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="20">
         <v>10</v>
       </c>
@@ -8330,10 +8308,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="20">
         <v>5</v>
       </c>
@@ -8351,10 +8329,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="20">
         <v>1</v>
       </c>
@@ -8372,10 +8350,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="20">
         <v>1</v>
       </c>
@@ -8393,10 +8371,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="115"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -8414,10 +8392,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="20">
         <v>0</v>
       </c>
@@ -8435,10 +8413,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="20">
         <v>0</v>
       </c>
@@ -8456,10 +8434,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="115"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="20">
         <v>0</v>
       </c>
@@ -8477,10 +8455,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="20">
         <v>100</v>
       </c>
@@ -8498,10 +8476,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="23">
         <v>1</v>
       </c>
@@ -8519,93 +8497,93 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="120"/>
+      <c r="C18" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115" t="s">
+      <c r="B21" s="120"/>
+      <c r="C21" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115" t="s">
+      <c r="B23" s="120"/>
+      <c r="C23" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -8627,139 +8605,139 @@
     </row>
     <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="96"/>
+      <c r="C28" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="118"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="109"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="120"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="135"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="109"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="137"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84" t="s">
+      <c r="B31" s="96"/>
+      <c r="C31" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="118"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="132"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="109"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="120"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="135"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="109"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84" t="s">
+      <c r="B34" s="96"/>
+      <c r="C34" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="118"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="132"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="109"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="120"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="135"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="109"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="122"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="137"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84" t="s">
+      <c r="B37" s="96"/>
+      <c r="C37" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="118"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="132"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="109"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="120"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="135"/>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="111"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="95"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="108"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="26"/>
@@ -8789,212 +8767,211 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="124" t="s">
+      <c r="A43" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115" t="s">
+      <c r="B44" s="120"/>
+      <c r="C44" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="115" t="s">
+      <c r="A45" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115" t="s">
+      <c r="B45" s="120"/>
+      <c r="C45" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116" t="s">
+      <c r="B46" s="141"/>
+      <c r="C46" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="115" t="s">
+      <c r="A47" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115" t="s">
+      <c r="B47" s="120"/>
+      <c r="C47" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="115" t="s">
+      <c r="A48" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115" t="s">
+      <c r="B48" s="120"/>
+      <c r="C48" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="115" t="s">
+      <c r="A49" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115" t="s">
+      <c r="B49" s="120"/>
+      <c r="C49" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="114"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="114"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="108"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="129"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="109" t="s">
+      <c r="A56" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="110"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="142"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="110"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="142"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="110"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="142"/>
     </row>
     <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="113"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -9009,29 +8986,30 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9040,10 +9018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27160537-663B-4FCA-AA83-8887F14AC136}">
-  <dimension ref="B2:J41"/>
+  <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9054,104 +9032,87 @@
     </row>
     <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="245" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="143" t="s">
+      <c r="C19" s="246"/>
+      <c r="D19" s="247" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="248"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="154" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="155"/>
+      <c r="D20" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="144"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="83" t="s">
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="143"/>
+    </row>
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="144" t="s">
         <v>244</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="110"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="112" t="s">
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
+    </row>
+    <row r="40" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
-    </row>
-    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="131" t="s">
+      <c r="C40" s="148"/>
+      <c r="D40" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="134" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="136" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="137"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
+  <mergeCells count="8">
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9177,81 +9138,81 @@
       <c r="B19" s="27"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
     </row>
     <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="154" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="156"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="177" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="179"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="84" t="s">
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="146" t="s">
+      <c r="E25" s="98"/>
+      <c r="F25" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="147"/>
-      <c r="H25" s="146" t="s">
+      <c r="G25" s="168"/>
+      <c r="H25" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="147"/>
+      <c r="I25" s="168"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="150"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="146">
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="167">
         <v>20</v>
       </c>
-      <c r="G26" s="147"/>
-      <c r="H26" s="146" t="s">
+      <c r="G26" s="168"/>
+      <c r="H26" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="147"/>
+      <c r="I26" s="168"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="150"/>
-      <c r="C27" s="151"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="172"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>135</v>
@@ -9274,8 +9235,8 @@
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="172"/>
       <c r="D28" s="17" t="s">
         <v>141</v>
       </c>
@@ -9300,13 +9261,13 @@
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="164" t="s">
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="165" t="s">
         <v>176</v>
       </c>
       <c r="E29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F29" s="63" t="s">
         <v>168</v>
@@ -9314,31 +9275,31 @@
       <c r="G29" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="146">
+      <c r="H29" s="167">
         <v>20</v>
       </c>
-      <c r="I29" s="147"/>
-      <c r="J29" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="K29" s="147"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" s="168"/>
       <c r="L29" s="17">
         <v>-0.5</v>
       </c>
       <c r="M29" s="17"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="143"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="156"/>
       <c r="E30" s="55" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F30" s="55" t="s">
         <v>168</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H30" s="32">
         <v>1</v>
@@ -9350,22 +9311,22 @@
       <c r="M30" s="62"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="157" t="s">
+      <c r="F31" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="159"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="164"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="42"/>
@@ -9385,195 +9346,195 @@
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B67" s="148" t="s">
+      <c r="B67" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="149"/>
-      <c r="D67" s="105" t="s">
+      <c r="C67" s="159"/>
+      <c r="D67" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="105"/>
-      <c r="L67" s="105"/>
-      <c r="M67" s="105"/>
-      <c r="N67" s="105"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="118"/>
+      <c r="K67" s="118"/>
+      <c r="L67" s="118"/>
+      <c r="M67" s="118"/>
+      <c r="N67" s="118"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B68" s="150"/>
-      <c r="C68" s="151"/>
-      <c r="D68" s="164" t="s">
-        <v>262</v>
+      <c r="B68" s="171"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="165" t="s">
+        <v>260</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H68" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="I68" s="83"/>
+        <v>252</v>
+      </c>
+      <c r="H68" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="I68" s="96"/>
       <c r="J68" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="K68" s="146" t="s">
-        <v>268</v>
-      </c>
-      <c r="L68" s="147"/>
+        <v>262</v>
+      </c>
+      <c r="K68" s="167" t="s">
+        <v>266</v>
+      </c>
+      <c r="L68" s="168"/>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B69" s="150"/>
-      <c r="C69" s="151"/>
-      <c r="D69" s="165"/>
+      <c r="B69" s="171"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="166"/>
       <c r="E69" s="17" t="s">
         <v>200</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
-      <c r="H69" s="166" t="s">
+      <c r="H69" s="169" t="s">
+        <v>268</v>
+      </c>
+      <c r="I69" s="170"/>
+      <c r="J69" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K69" s="167" t="s">
         <v>270</v>
       </c>
-      <c r="I69" s="167"/>
-      <c r="J69" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K69" s="146" t="s">
-        <v>272</v>
-      </c>
-      <c r="L69" s="147"/>
+      <c r="L69" s="168"/>
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B70" s="150"/>
-      <c r="C70" s="151"/>
-      <c r="D70" s="143"/>
+      <c r="B70" s="171"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="156"/>
       <c r="E70" s="43" t="s">
         <v>201</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G70" s="43">
         <v>1.5</v>
       </c>
-      <c r="H70" s="83" t="s">
+      <c r="H70" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="I70" s="96"/>
+      <c r="J70" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="K70" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="L70" s="98"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B71" s="160"/>
+      <c r="C71" s="161"/>
+      <c r="D71" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="I70" s="83"/>
-      <c r="J70" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="K70" s="84" t="s">
+      <c r="E71" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="H71" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="L70" s="85"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B71" s="152"/>
-      <c r="C71" s="153"/>
-      <c r="D71" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="F71" s="17" t="s">
+      <c r="I71" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="G71" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="I71" s="32" t="s">
+      <c r="J71" s="181" t="s">
         <v>275</v>
       </c>
-      <c r="J71" s="168" t="s">
-        <v>277</v>
-      </c>
-      <c r="K71" s="169"/>
-      <c r="L71" s="169"/>
-      <c r="M71" s="169"/>
-      <c r="N71" s="170"/>
+      <c r="K71" s="182"/>
+      <c r="L71" s="182"/>
+      <c r="M71" s="182"/>
+      <c r="N71" s="183"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B72" s="148" t="s">
+      <c r="B72" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="C72" s="149"/>
-      <c r="D72" s="83" t="s">
-        <v>255</v>
-      </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="I72" s="83"/>
-      <c r="J72" s="143"/>
-      <c r="K72" s="143"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="I72" s="96"/>
+      <c r="J72" s="156"/>
+      <c r="K72" s="156"/>
       <c r="L72" s="13"/>
       <c r="M72" s="61"/>
       <c r="N72" s="44"/>
     </row>
     <row r="73" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="152"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="157" t="s">
+      <c r="B73" s="160"/>
+      <c r="C73" s="161"/>
+      <c r="D73" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="158"/>
-      <c r="F73" s="158"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="158"/>
-      <c r="N73" s="159"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="163"/>
+      <c r="I73" s="163"/>
+      <c r="J73" s="163"/>
+      <c r="K73" s="163"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="163"/>
+      <c r="N73" s="164"/>
     </row>
     <row r="74" spans="2:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="148" t="s">
+      <c r="B74" s="158" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="149"/>
-      <c r="D74" s="154" t="s">
+      <c r="C74" s="159"/>
+      <c r="D74" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="155"/>
-      <c r="F74" s="155"/>
-      <c r="G74" s="155"/>
-      <c r="H74" s="155"/>
-      <c r="I74" s="155"/>
-      <c r="J74" s="155"/>
-      <c r="K74" s="155"/>
-      <c r="L74" s="155"/>
-      <c r="M74" s="155"/>
-      <c r="N74" s="156"/>
+      <c r="E74" s="178"/>
+      <c r="F74" s="178"/>
+      <c r="G74" s="178"/>
+      <c r="H74" s="178"/>
+      <c r="I74" s="178"/>
+      <c r="J74" s="178"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="178"/>
+      <c r="M74" s="178"/>
+      <c r="N74" s="179"/>
     </row>
     <row r="75" spans="2:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="150"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="160" t="s">
+      <c r="B75" s="171"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="161"/>
+      <c r="E75" s="174"/>
       <c r="F75" s="17" t="s">
         <v>135</v>
       </c>
@@ -9595,10 +9556,10 @@
       <c r="N75" s="17"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B76" s="152"/>
-      <c r="C76" s="153"/>
-      <c r="D76" s="162"/>
-      <c r="E76" s="163"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="176"/>
       <c r="F76" s="17" t="s">
         <v>180</v>
       </c>
@@ -9620,27 +9581,27 @@
       <c r="N76" s="17"/>
     </row>
     <row r="77" spans="2:14" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="148" t="s">
+      <c r="B77" s="158" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="149"/>
-      <c r="D77" s="154" t="s">
+      <c r="C77" s="159"/>
+      <c r="D77" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="155"/>
-      <c r="F77" s="155"/>
-      <c r="G77" s="155"/>
-      <c r="H77" s="155"/>
-      <c r="I77" s="155"/>
-      <c r="J77" s="155"/>
-      <c r="K77" s="155"/>
-      <c r="L77" s="155"/>
-      <c r="M77" s="155"/>
-      <c r="N77" s="156"/>
+      <c r="E77" s="178"/>
+      <c r="F77" s="178"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="178"/>
+      <c r="M77" s="178"/>
+      <c r="N77" s="179"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B78" s="150"/>
-      <c r="C78" s="151"/>
+      <c r="B78" s="171"/>
+      <c r="C78" s="172"/>
       <c r="D78" s="17" t="s">
         <v>187</v>
       </c>
@@ -9658,13 +9619,13 @@
       <c r="N78" s="35"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B79" s="150"/>
-      <c r="C79" s="151"/>
-      <c r="D79" s="84" t="s">
+      <c r="B79" s="171"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="117"/>
-      <c r="F79" s="85"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="98"/>
       <c r="G79" s="13" t="s">
         <v>135</v>
       </c>
@@ -9685,11 +9646,11 @@
       <c r="N79" s="17"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B80" s="150"/>
-      <c r="C80" s="151"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="121"/>
-      <c r="F80" s="87"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="100"/>
       <c r="G80" s="43">
         <v>0</v>
       </c>
@@ -9710,8 +9671,8 @@
       <c r="N80" s="17"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B81" s="152"/>
-      <c r="C81" s="153"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="161"/>
       <c r="D81" s="17" t="s">
         <v>176</v>
       </c>
@@ -9729,10 +9690,10 @@
       <c r="N81" s="35"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B82" s="148" t="s">
+      <c r="B82" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="149"/>
+      <c r="C82" s="159"/>
       <c r="D82" s="33" t="s">
         <v>189</v>
       </c>
@@ -9748,8 +9709,8 @@
       <c r="N82" s="35"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B83" s="152"/>
-      <c r="C83" s="153"/>
+      <c r="B83" s="160"/>
+      <c r="C83" s="161"/>
       <c r="D83" s="17" t="s">
         <v>66</v>
       </c>
@@ -9768,10 +9729,10 @@
       <c r="O83" s="29"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B84" s="148" t="s">
+      <c r="B84" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="149"/>
+      <c r="C84" s="159"/>
       <c r="D84" s="33" t="s">
         <v>192</v>
       </c>
@@ -9788,8 +9749,8 @@
       <c r="O84" s="29"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B85" s="152"/>
-      <c r="C85" s="153"/>
+      <c r="B85" s="160"/>
+      <c r="C85" s="161"/>
       <c r="D85" s="17" t="s">
         <v>66</v>
       </c>
@@ -9808,25 +9769,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B72:C73"/>
-    <mergeCell ref="D73:N73"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B84:C85"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="B74:C76"/>
-    <mergeCell ref="D75:E76"/>
-    <mergeCell ref="D77:N77"/>
-    <mergeCell ref="D79:F80"/>
-    <mergeCell ref="B77:C81"/>
-    <mergeCell ref="D74:N74"/>
     <mergeCell ref="B23:N23"/>
     <mergeCell ref="D67:N67"/>
     <mergeCell ref="D25:E26"/>
@@ -9842,6 +9784,25 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="B67:C71"/>
     <mergeCell ref="J71:N71"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="B74:C76"/>
+    <mergeCell ref="D75:E76"/>
+    <mergeCell ref="D77:N77"/>
+    <mergeCell ref="D79:F80"/>
+    <mergeCell ref="B77:C81"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="D73:N73"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9861,117 +9822,117 @@
   <sheetData>
     <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="133"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="146"/>
     </row>
     <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="171" t="s">
+      <c r="D17" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="214"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="173"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="215"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="173"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="215"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="105" t="s">
+      <c r="C20" s="217"/>
+      <c r="D20" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="173"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="215"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="202"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="105" t="s">
+      <c r="B21" s="218"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="173"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="215"/>
     </row>
     <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="204"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="206"/>
-      <c r="L22" s="207"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="222" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="222"/>
+      <c r="F22" s="222"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="222"/>
+      <c r="I22" s="222"/>
+      <c r="J22" s="222"/>
+      <c r="K22" s="222"/>
+      <c r="L22" s="223"/>
     </row>
     <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="28"/>
@@ -9987,52 +9948,52 @@
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="184" t="s">
+      <c r="C24" s="208"/>
+      <c r="D24" s="195" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="185"/>
-      <c r="F24" s="180">
+      <c r="E24" s="196"/>
+      <c r="F24" s="197">
         <v>2</v>
       </c>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="182"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
     </row>
     <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178" t="s">
+      <c r="B25" s="206"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="189" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="179"/>
+      <c r="E25" s="190"/>
       <c r="F25" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="208" t="s">
+      <c r="G25" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="208" t="s">
+      <c r="H25" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="208" t="s">
+      <c r="I25" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="209" t="s">
+      <c r="J25" s="75" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="178"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="178" t="s">
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="189" t="s">
         <v>234</v>
       </c>
-      <c r="E26" s="179"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="38">
         <v>0</v>
       </c>
@@ -10051,34 +10012,34 @@
     </row>
     <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="184" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="208"/>
+      <c r="D28" s="195" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="196"/>
+      <c r="F28" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="185"/>
-      <c r="F28" s="184" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="185"/>
+      <c r="G28" s="196"/>
     </row>
     <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="178"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="180">
+      <c r="B29" s="189"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="197">
         <v>1</v>
       </c>
-      <c r="E29" s="182"/>
-      <c r="F29" s="180">
+      <c r="E29" s="199"/>
+      <c r="F29" s="197">
         <v>4</v>
       </c>
-      <c r="G29" s="182"/>
+      <c r="G29" s="199"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="210" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C30" s="211"/>
       <c r="D30" s="211"/>
@@ -10090,49 +10051,49 @@
       <c r="J30" s="212"/>
     </row>
     <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="215"/>
+      <c r="B31" s="203" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
     </row>
     <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="184" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="174" t="s">
+      <c r="C33" s="185"/>
+      <c r="D33" s="184" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="175"/>
-      <c r="F33" s="216" t="s">
+      <c r="E33" s="185"/>
+      <c r="F33" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="208" t="s">
+      <c r="G33" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="208" t="s">
+      <c r="H33" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="208" t="s">
+      <c r="I33" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="209" t="s">
+      <c r="J33" s="75" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="176"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="179"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="190"/>
       <c r="F34" s="50">
         <v>1</v>
       </c>
@@ -10150,78 +10111,78 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="176"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="174" t="s">
+      <c r="B35" s="206"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="175"/>
-      <c r="F35" s="216" t="s">
+      <c r="E35" s="185"/>
+      <c r="F35" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="G35" s="208" t="s">
+      <c r="G35" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="208" t="s">
+      <c r="H35" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="208" t="s">
+      <c r="I35" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="209" t="s">
+      <c r="J35" s="75" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="176"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="179"/>
+      <c r="B36" s="206"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="190"/>
       <c r="F36" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="G36" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="J36" s="39" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="176"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="176" t="s">
+      <c r="B37" s="206"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="177"/>
-      <c r="F37" s="216" t="s">
+      <c r="E37" s="207"/>
+      <c r="F37" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="208" t="s">
+      <c r="G37" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="208" t="s">
+      <c r="H37" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="208" t="s">
+      <c r="I37" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="209" t="s">
+      <c r="J37" s="75" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="176"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="217">
+      <c r="B38" s="206"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="77">
         <v>1</v>
       </c>
       <c r="G38" s="65">
@@ -10238,102 +10199,102 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="176"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="174" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="175"/>
-      <c r="F39" s="216" t="s">
+      <c r="B39" s="206"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="184" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="185"/>
+      <c r="F39" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="208" t="s">
+      <c r="G39" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="208" t="s">
+      <c r="H39" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="208" t="s">
+      <c r="I39" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="209" t="s">
+      <c r="J39" s="75" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="178"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="218">
+      <c r="B40" s="189"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="78">
         <v>0.4</v>
       </c>
-      <c r="G40" s="219">
+      <c r="G40" s="79">
         <v>0.2</v>
       </c>
-      <c r="H40" s="219">
+      <c r="H40" s="79">
         <v>0.2</v>
       </c>
-      <c r="I40" s="219">
+      <c r="I40" s="79">
         <v>0.1</v>
       </c>
-      <c r="J40" s="220">
+      <c r="J40" s="80">
         <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="184" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="185"/>
+      <c r="D42" s="195" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="196"/>
+      <c r="F42" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="206"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="195" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="175"/>
-      <c r="D42" s="184" t="s">
-        <v>290</v>
-      </c>
-      <c r="E42" s="185"/>
-      <c r="F42" s="221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="176"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="184" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="185"/>
-      <c r="F43" s="222">
+      <c r="E43" s="196"/>
+      <c r="F43" s="82">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="176"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="174" t="s">
+      <c r="B44" s="206"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="175"/>
-      <c r="F44" s="223" t="s">
+      <c r="E44" s="185"/>
+      <c r="F44" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="224" t="s">
+      <c r="G44" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="224" t="s">
+      <c r="H44" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="224" t="s">
+      <c r="I44" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="225" t="s">
+      <c r="J44" s="85" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="176"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="189"/>
+      <c r="E45" s="190"/>
       <c r="F45" s="36">
         <v>1</v>
       </c>
@@ -10351,35 +10312,35 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="176"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="174" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="175"/>
-      <c r="F46" s="223" t="s">
+      <c r="B46" s="206"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="184" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="185"/>
+      <c r="F46" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="224" t="s">
+      <c r="G46" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="224" t="s">
+      <c r="H46" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="224" t="s">
+      <c r="I46" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="225" t="s">
+      <c r="J46" s="85" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="176"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="178" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" s="179"/>
+      <c r="B47" s="206"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="189" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="190"/>
       <c r="F47" s="36">
         <v>-0.5</v>
       </c>
@@ -10397,71 +10358,71 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="176"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="174" t="s">
+      <c r="B48" s="206"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="184" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="185"/>
+      <c r="F48" s="200">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="202"/>
+    </row>
+    <row r="49" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="189"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="189" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="190"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="205"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="105"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="194" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="135"/>
+    </row>
+    <row r="52" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="E48" s="175"/>
-      <c r="F48" s="226">
-        <v>-1</v>
-      </c>
-      <c r="G48" s="227"/>
-      <c r="H48" s="227"/>
-      <c r="I48" s="227"/>
-      <c r="J48" s="228"/>
-    </row>
-    <row r="49" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="178"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="178" t="s">
-        <v>293</v>
-      </c>
-      <c r="E49" s="179"/>
-      <c r="F49" s="213"/>
-      <c r="G49" s="214"/>
-      <c r="H49" s="214"/>
-      <c r="I49" s="214"/>
-      <c r="J49" s="215"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="90" t="s">
-        <v>295</v>
-      </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="92"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="229" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="120"/>
-    </row>
-    <row r="52" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="93" t="s">
-        <v>296</v>
-      </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="95"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="26"/>
@@ -10475,36 +10436,36 @@
       <c r="J53" s="26"/>
     </row>
     <row r="54" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="174" t="s">
-        <v>297</v>
-      </c>
-      <c r="C54" s="175"/>
-      <c r="D54" s="184" t="s">
+      <c r="B54" s="184" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="185"/>
+      <c r="D54" s="195" t="s">
         <v>176</v>
       </c>
-      <c r="E54" s="185"/>
-      <c r="F54" s="221">
+      <c r="E54" s="196"/>
+      <c r="F54" s="81">
         <v>-1</v>
       </c>
-      <c r="G54" s="184" t="s">
+      <c r="G54" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="185"/>
-      <c r="I54" s="221">
+      <c r="H54" s="196"/>
+      <c r="I54" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="178"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="180" t="s">
-        <v>298</v>
-      </c>
-      <c r="E55" s="181"/>
-      <c r="F55" s="181"/>
-      <c r="G55" s="181"/>
-      <c r="H55" s="181"/>
-      <c r="I55" s="182"/>
+      <c r="B55" s="189"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="197" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="198"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="198"/>
+      <c r="H55" s="198"/>
+      <c r="I55" s="199"/>
     </row>
     <row r="56" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="26"/>
@@ -10518,37 +10479,72 @@
       <c r="J56" s="26"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="174" t="s">
+      <c r="B57" s="184" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" s="185"/>
+      <c r="D57" s="186" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="187"/>
+      <c r="J57" s="188"/>
+    </row>
+    <row r="58" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="C57" s="175"/>
-      <c r="D57" s="230" t="s">
+      <c r="C58" s="190"/>
+      <c r="D58" s="191" t="s">
         <v>300</v>
       </c>
-      <c r="E57" s="231"/>
-      <c r="F57" s="231"/>
-      <c r="G57" s="231"/>
-      <c r="H57" s="231"/>
-      <c r="I57" s="231"/>
-      <c r="J57" s="232"/>
-    </row>
-    <row r="58" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="178" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" s="179"/>
-      <c r="D58" s="233" t="s">
-        <v>302</v>
-      </c>
-      <c r="E58" s="193"/>
-      <c r="F58" s="193"/>
-      <c r="G58" s="193"/>
-      <c r="H58" s="193"/>
-      <c r="I58" s="193"/>
-      <c r="J58" s="234"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="B33:C40"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:J49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B42:C49"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="B58:C58"/>
@@ -10559,41 +10555,6 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:J49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="B33:C40"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="B42:C49"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10613,78 +10574,78 @@
   <sheetData>
     <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="175"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="208"/>
+      <c r="M19" s="185"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="159"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="164"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="189" t="s">
+      <c r="B21" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="190"/>
-      <c r="D21" s="157" t="s">
+      <c r="C21" s="235"/>
+      <c r="D21" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="159"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="164"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="157" t="s">
+      <c r="B22" s="236"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="159"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="190"/>
+      <c r="C23" s="235"/>
       <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
@@ -10699,26 +10660,26 @@
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="191"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="157" t="s">
+      <c r="B24" s="236"/>
+      <c r="C24" s="237"/>
+      <c r="D24" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="159"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="164"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="189" t="s">
+      <c r="B25" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="190"/>
+      <c r="C25" s="235"/>
       <c r="D25" s="17" t="s">
         <v>33</v>
       </c>
@@ -10733,33 +10694,33 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="157" t="s">
+      <c r="B26" s="236"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="159"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="164"/>
     </row>
     <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="235"/>
-      <c r="D28" s="187" t="s">
+      <c r="C28" s="229"/>
+      <c r="D28" s="238" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
       <c r="H28" s="46" t="s">
         <v>114</v>
       </c>
@@ -10777,14 +10738,14 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="176"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="83" t="s">
+      <c r="B29" s="206"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="17">
         <v>5</v>
       </c>
@@ -10797,159 +10758,159 @@
       <c r="K29" s="17">
         <v>2</v>
       </c>
-      <c r="L29" s="236">
+      <c r="L29" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B30" s="176"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="237" t="s">
+      <c r="B30" s="206"/>
+      <c r="C30" s="230"/>
+      <c r="D30" s="232" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83" t="s">
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83">
+      <c r="J30" s="96"/>
+      <c r="K30" s="96">
         <v>-2</v>
       </c>
-      <c r="L30" s="110"/>
+      <c r="L30" s="142"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="176"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="237"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83" t="s">
+      <c r="B31" s="206"/>
+      <c r="C31" s="230"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83">
+      <c r="J31" s="96"/>
+      <c r="K31" s="96">
         <v>1</v>
       </c>
-      <c r="L31" s="110"/>
+      <c r="L31" s="142"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="176"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="83" t="s">
+      <c r="B32" s="206"/>
+      <c r="C32" s="230"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="96" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83" t="s">
+      <c r="J32" s="96"/>
+      <c r="K32" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83" t="s">
+      <c r="L32" s="142"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="206"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="232" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="224" t="s">
         <v>305</v>
       </c>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83" t="s">
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="142"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="206"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96">
+        <v>5</v>
+      </c>
+      <c r="L34" s="142"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="206"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="232"/>
+      <c r="E35" s="96" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="96"/>
+      <c r="G35" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="L32" s="110"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="176"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="237" t="s">
-        <v>205</v>
-      </c>
-      <c r="E33" s="238" t="s">
+      <c r="H35" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="F33" s="238"/>
-      <c r="G33" s="238"/>
-      <c r="H33" s="238"/>
-      <c r="I33" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83">
-        <v>-1</v>
-      </c>
-      <c r="L33" s="110"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="176"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="237"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="238"/>
-      <c r="I34" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83">
-        <v>5</v>
-      </c>
-      <c r="L34" s="110"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="176"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="237"/>
-      <c r="E35" s="83" t="s">
-        <v>305</v>
-      </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="32" t="s">
+      <c r="I35" s="96"/>
+      <c r="J35" s="224" t="s">
         <v>308</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="K35" s="224"/>
+      <c r="L35" s="225"/>
+    </row>
+    <row r="36" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="206"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="238" t="s">
-        <v>310</v>
-      </c>
-      <c r="K35" s="238"/>
-      <c r="L35" s="239"/>
-    </row>
-    <row r="36" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="176"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="237"/>
-      <c r="E36" s="83" t="s">
-        <v>311</v>
-      </c>
-      <c r="F36" s="83"/>
+      <c r="F36" s="96"/>
       <c r="G36" s="32">
         <v>2</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="238" t="s">
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="224" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" s="224"/>
+      <c r="L36" s="225"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="206"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="96" t="s">
+        <v>311</v>
+      </c>
+      <c r="F37" s="96">
+        <v>1</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>312</v>
-      </c>
-      <c r="K36" s="238"/>
-      <c r="L36" s="239"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="176"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="F37" s="83">
-        <v>1</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>314</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>114</v>
@@ -10963,18 +10924,18 @@
       <c r="K37" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L37" s="236" t="s">
+      <c r="L37" s="86" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="176"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
+      <c r="B38" s="206"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="232"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
       <c r="G38" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H38" s="32">
         <v>0</v>
@@ -10993,164 +10954,177 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="176"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="237" t="s">
+      <c r="B39" s="206"/>
+      <c r="C39" s="230"/>
+      <c r="D39" s="232" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83" t="s">
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83">
+      <c r="J39" s="96"/>
+      <c r="K39" s="96">
         <v>-1</v>
       </c>
-      <c r="L39" s="110"/>
+      <c r="L39" s="142"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="176"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="237"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83" t="s">
+      <c r="B40" s="206"/>
+      <c r="C40" s="230"/>
+      <c r="D40" s="232"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83">
+      <c r="J40" s="96"/>
+      <c r="K40" s="96">
         <v>4</v>
       </c>
-      <c r="L40" s="110"/>
+      <c r="L40" s="142"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="176"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="240" t="s">
+      <c r="B41" s="206"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="228" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="83" t="s">
+      <c r="E41" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83" t="s">
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83">
+      <c r="J41" s="96"/>
+      <c r="K41" s="96">
         <v>-2</v>
       </c>
-      <c r="L41" s="110"/>
+      <c r="L41" s="142"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="176"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="240"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83" t="s">
+      <c r="B42" s="206"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83">
+      <c r="J42" s="96"/>
+      <c r="K42" s="96">
         <v>2</v>
       </c>
-      <c r="L42" s="110"/>
+      <c r="L42" s="142"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="176"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="99" t="s">
+      <c r="B43" s="206"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="238" t="s">
+      <c r="E43" s="224" t="s">
         <v>212</v>
       </c>
-      <c r="F43" s="238"/>
-      <c r="G43" s="238"/>
-      <c r="H43" s="238"/>
-      <c r="I43" s="83" t="s">
+      <c r="F43" s="224"/>
+      <c r="G43" s="224"/>
+      <c r="H43" s="224"/>
+      <c r="I43" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83">
+      <c r="J43" s="96"/>
+      <c r="K43" s="96">
         <v>-10</v>
       </c>
-      <c r="L43" s="110"/>
+      <c r="L43" s="142"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="176"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="238"/>
-      <c r="F44" s="238"/>
-      <c r="G44" s="238"/>
-      <c r="H44" s="238"/>
-      <c r="I44" s="83" t="s">
-        <v>316</v>
-      </c>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83" t="s">
+      <c r="B44" s="206"/>
+      <c r="C44" s="230"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="224"/>
+      <c r="H44" s="224"/>
+      <c r="I44" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="L44" s="110"/>
+      <c r="L44" s="142"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="176"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="238"/>
-      <c r="F45" s="238"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="238"/>
-      <c r="I45" s="83" t="s">
+      <c r="B45" s="206"/>
+      <c r="C45" s="230"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="224"/>
+      <c r="H45" s="224"/>
+      <c r="I45" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="J45" s="83"/>
-      <c r="K45" s="238" t="s">
-        <v>317</v>
-      </c>
-      <c r="L45" s="239"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="224" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" s="225"/>
     </row>
     <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="178"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="243"/>
-      <c r="L46" s="244"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="226"/>
+      <c r="L46" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
     <mergeCell ref="B28:C46"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -11167,32 +11141,19 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="E43:H46"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="K45:L46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11220,300 +11181,300 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="194"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="240"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="240"/>
+      <c r="I19" s="240"/>
+      <c r="J19" s="240"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="240"/>
+      <c r="N19" s="240"/>
+      <c r="O19" s="240"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="105" t="s">
+      <c r="C21" s="96"/>
+      <c r="D21" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83" t="s">
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83" t="s">
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83" t="s">
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83" t="s">
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="195" t="s">
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="239" t="s">
         <v>153</v>
       </c>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="105" t="s">
+      <c r="C24" s="153"/>
+      <c r="D24" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="83" t="s">
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83" t="s">
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83" t="s">
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83" t="s">
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="83" t="s">
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83" t="s">
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83" t="s">
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83" t="s">
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="153" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="83" t="s">
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83" t="s">
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83" t="s">
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="140" t="s">
+      <c r="B29" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="83" t="s">
+      <c r="C29" s="153"/>
+      <c r="D29" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="83" t="s">
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="83" t="s">
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="83" t="s">
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83" t="s">
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83" t="s">
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83" t="s">
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="28"/>
@@ -11597,26 +11558,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -11633,6 +11574,26 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11645,7 +11606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
   <dimension ref="B36:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -11656,300 +11617,302 @@
   <sheetData>
     <row r="36" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="196" t="s">
+      <c r="B37" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="197"/>
-      <c r="L37" s="198"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="243"/>
+      <c r="J37" s="243"/>
+      <c r="K37" s="243"/>
+      <c r="L37" s="244"/>
     </row>
     <row r="38" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="143" t="s">
+      <c r="C38" s="102"/>
+      <c r="D38" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="144"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="157"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="83" t="s">
+      <c r="C39" s="153"/>
+      <c r="D39" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="110"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="142"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="83" t="s">
+      <c r="B40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83" t="s">
+      <c r="E40" s="96"/>
+      <c r="F40" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83" t="s">
+      <c r="G40" s="96"/>
+      <c r="H40" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83" t="s">
+      <c r="I40" s="96"/>
+      <c r="J40" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="83"/>
-      <c r="L40" s="110"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="142"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="83" t="s">
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83" t="s">
+      <c r="E41" s="96"/>
+      <c r="F41" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83" t="s">
+      <c r="G41" s="96"/>
+      <c r="H41" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83">
+      <c r="I41" s="96"/>
+      <c r="J41" s="96">
         <v>1</v>
       </c>
-      <c r="K41" s="83"/>
-      <c r="L41" s="110"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="142"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="110"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="142"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="109"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83" t="s">
+      <c r="B43" s="130"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83" t="s">
+      <c r="E43" s="96"/>
+      <c r="F43" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83" t="s">
+      <c r="G43" s="96"/>
+      <c r="H43" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83" t="s">
+      <c r="I43" s="96"/>
+      <c r="J43" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="K43" s="83"/>
-      <c r="L43" s="110"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="142"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="109"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83" t="s">
+      <c r="B44" s="130"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83" t="s">
+      <c r="E44" s="96"/>
+      <c r="F44" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83" t="s">
+      <c r="G44" s="96"/>
+      <c r="H44" s="96" t="s">
         <v>218</v>
       </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83" t="s">
+      <c r="I44" s="96"/>
+      <c r="J44" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="K44" s="83"/>
-      <c r="L44" s="110"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="142"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83" t="s">
+      <c r="C45" s="96"/>
+      <c r="D45" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="110"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="142"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="109"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83" t="s">
+      <c r="B46" s="130"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83" t="s">
+      <c r="E46" s="96"/>
+      <c r="F46" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83" t="s">
+      <c r="G46" s="96"/>
+      <c r="H46" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83" t="s">
+      <c r="I46" s="96"/>
+      <c r="J46" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="K46" s="83"/>
-      <c r="L46" s="110"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="142"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="109"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83" t="s">
+      <c r="B47" s="130"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83" t="s">
+      <c r="E47" s="96"/>
+      <c r="F47" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83" t="s">
+      <c r="G47" s="96"/>
+      <c r="H47" s="96" t="s">
         <v>218</v>
       </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83" t="s">
+      <c r="I47" s="96"/>
+      <c r="J47" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="K47" s="83"/>
-      <c r="L47" s="110"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="142"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="199" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83" t="s">
+      <c r="B48" s="241" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="110"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="142"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="109"/>
-      <c r="C49" s="83"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="96"/>
       <c r="D49" s="17" t="s">
         <v>146</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="83" t="s">
+      <c r="F49" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83" t="s">
+      <c r="G49" s="96"/>
+      <c r="H49" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" s="96"/>
+      <c r="L49" s="142"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B50" s="130"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="142"/>
+    </row>
+    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139" t="s">
         <v>249</v>
       </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" s="83"/>
-      <c r="L49" s="110"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="109"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="110"/>
-    </row>
-    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="111"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="113"/>
+      <c r="I51" s="139"/>
+      <c r="J51" s="139"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
     <mergeCell ref="B48:C51"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -11966,20 +11929,18 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/기획서 및 발표자료/스핀그로우_기획서(최종)-건희수정필요.xlsx
+++ b/기획서/기획서 및 발표자료/스핀그로우_기획서(최종)-건희수정필요.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\08Extra\유니티 게임프로젝트\NoJump\기획서\기획서 및 발표자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FD6C1-6E3F-4912-B168-F2767086E844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7B7D0-1004-47DD-9F3A-229D1FFF13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="313">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,10 +620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">창의 찌르는 주기 : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데미지 :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,18 +636,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>창의 찌르는 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>병정 주위의 8cm^2(8블록)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/2 x 4 x 1/4 (부채꼴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lv에 따른 내려가는 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,10 +713,6 @@
   </si>
   <si>
     <t>재생성 시간 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2 x 4 x 8 ( 부채꼴 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -913,10 +897,6 @@
   </si>
   <si>
     <t xml:space="preserve">공격 범위 : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 전범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1041,10 +1021,6 @@
   </si>
   <si>
     <t xml:space="preserve">창의 찌르는 범위 : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2 x 4 x 1/4 (부채꼴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1346,6 +1322,18 @@
   </si>
   <si>
     <t>5x5(손님부터 찻잔 위까지 범위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 x 10 x 8 (부채꼴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 x 10 x 4 ( 부채꼴 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2442,7 +2430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2800,12 +2788,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2815,66 +2863,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2896,13 +2884,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2911,10 +2896,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2923,11 +2917,26 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2941,26 +2950,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2974,31 +2974,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3010,12 +3091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3028,91 +3103,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3121,73 +3124,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7704,26 +7698,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB769FD-CCE9-4E61-AE6E-542587FE93AD}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="103" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="105"/>
     </row>
-    <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="106"/>
       <c r="C3" s="107"/>
       <c r="D3" s="108"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="112" t="s">
         <v>123</v>
       </c>
@@ -7732,14 +7726,14 @@
       </c>
       <c r="D5" s="118"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="112"/>
       <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="49" t="s">
         <v>126</v>
       </c>
@@ -7748,7 +7742,7 @@
       </c>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="49" t="s">
         <v>128</v>
       </c>
@@ -7757,7 +7751,7 @@
       </c>
       <c r="D8" s="118"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="49" t="s">
         <v>130</v>
       </c>
@@ -7766,17 +7760,17 @@
       </c>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="49" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10" s="118"/>
     </row>
-    <row r="11" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="115" t="s">
         <v>122</v>
       </c>
@@ -7795,9 +7789,9 @@
       <c r="O13" s="116"/>
       <c r="P13" s="117"/>
     </row>
-    <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" ht="185.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
@@ -7814,10 +7808,10 @@
       <c r="O14" s="111"/>
       <c r="P14" s="111"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N15" s="48"/>
     </row>
-    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="113" t="s">
         <v>132</v>
       </c>
@@ -7831,16 +7825,16 @@
       <c r="J16" s="51"/>
       <c r="K16" s="52"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B17" s="90" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="91"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B18" s="87" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
@@ -7852,7 +7846,7 @@
       <c r="J18" s="88"/>
       <c r="K18" s="89"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B19" s="90"/>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
@@ -7864,7 +7858,7 @@
       <c r="J19" s="91"/>
       <c r="K19" s="92"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" s="90"/>
       <c r="C20" s="91"/>
       <c r="D20" s="91"/>
@@ -7876,7 +7870,7 @@
       <c r="J20" s="91"/>
       <c r="K20" s="92"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="90"/>
       <c r="C21" s="91"/>
@@ -7889,7 +7883,7 @@
       <c r="J21" s="91"/>
       <c r="K21" s="92"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B22" s="90"/>
       <c r="C22" s="91"/>
       <c r="D22" s="91"/>
@@ -7901,7 +7895,7 @@
       <c r="J22" s="91"/>
       <c r="K22" s="92"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23" s="90"/>
       <c r="C23" s="91"/>
       <c r="D23" s="91"/>
@@ -7913,7 +7907,7 @@
       <c r="J23" s="91"/>
       <c r="K23" s="92"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" s="90"/>
       <c r="C24" s="91"/>
       <c r="D24" s="91"/>
@@ -7925,7 +7919,7 @@
       <c r="J24" s="91"/>
       <c r="K24" s="92"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="90"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -7937,7 +7931,7 @@
       <c r="J25" s="91"/>
       <c r="K25" s="92"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" s="90"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
@@ -7963,7 +7957,7 @@
       <c r="U26" s="96"/>
       <c r="V26" s="96"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27" s="90"/>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
@@ -7987,7 +7981,7 @@
       <c r="U27" s="96"/>
       <c r="V27" s="96"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B28" s="90"/>
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
@@ -7999,7 +7993,7 @@
       <c r="J28" s="91"/>
       <c r="K28" s="92"/>
     </row>
-    <row r="29" spans="1:22" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
@@ -8011,7 +8005,7 @@
       <c r="J29" s="94"/>
       <c r="K29" s="95"/>
     </row>
-    <row r="51" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="109" t="s">
         <v>9</v>
       </c>
@@ -8030,7 +8024,7 @@
       <c r="O51" s="30"/>
       <c r="P51" s="31"/>
     </row>
-    <row r="52" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
@@ -8042,7 +8036,7 @@
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
         <v>6</v>
       </c>
@@ -8065,7 +8059,7 @@
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>7</v>
       </c>
@@ -8089,7 +8083,7 @@
       <c r="P54" s="71"/>
       <c r="Q54" s="72"/>
     </row>
-    <row r="55" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="5" t="s">
         <v>10</v>
       </c>
@@ -8112,7 +8106,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="2:17" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
         <v>13</v>
       </c>
@@ -8135,7 +8129,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B57" s="101" t="s">
         <v>19</v>
       </c>
@@ -8158,7 +8152,7 @@
       <c r="O57" s="14"/>
       <c r="P57" s="12"/>
     </row>
-    <row r="58" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="102"/>
       <c r="C58" s="99"/>
       <c r="D58" s="100"/>
@@ -8177,13 +8171,13 @@
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="2:17" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B59" s="15"/>
       <c r="C59" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="56" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E59" s="57"/>
       <c r="F59" s="57"/>
@@ -8227,28 +8221,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D56172-F97B-4DA2-B700-ED6E77845DD1}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="123"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="119" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="143"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="20" t="s">
         <v>58</v>
       </c>
@@ -8265,11 +8259,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="119" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="20">
         <v>10</v>
       </c>
@@ -8286,11 +8280,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="119" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="20">
         <v>10</v>
       </c>
@@ -8307,11 +8301,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="119" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="120"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="20">
         <v>5</v>
       </c>
@@ -8328,11 +8322,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="119" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="20">
         <v>1</v>
       </c>
@@ -8349,11 +8343,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="119" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="120"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="20">
         <v>1</v>
       </c>
@@ -8370,11 +8364,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="119" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="120"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -8391,11 +8385,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="119" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="20">
         <v>0</v>
       </c>
@@ -8412,11 +8406,11 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="119" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="20">
         <v>0</v>
       </c>
@@ -8433,11 +8427,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="119" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="20">
         <v>0</v>
       </c>
@@ -8454,11 +8448,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="119" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="120"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="20">
         <v>100</v>
       </c>
@@ -8475,11 +8469,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="124" t="s">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="125"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="23">
         <v>1</v>
       </c>
@@ -8496,96 +8490,96 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="126" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="120" t="s">
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120" t="s">
+      <c r="B18" s="128"/>
+      <c r="C18" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="120" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="120" t="s">
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="128"/>
+      <c r="C20" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="120" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120" t="s">
+      <c r="B21" s="128"/>
+      <c r="C21" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="120" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="120" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -8594,7 +8588,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -8603,143 +8597,143 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="127" t="s">
+    <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="130" t="s">
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="121"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="122" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="96"/>
       <c r="C28" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="132"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="131"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="122"/>
       <c r="B29" s="96"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="135"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="130"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="133"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="122"/>
       <c r="B30" s="96"/>
       <c r="C30" s="99"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="130" t="s">
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="135"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="122" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="96"/>
       <c r="C31" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="131"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="122"/>
       <c r="B32" s="96"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="135"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="130"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="133"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="122"/>
       <c r="B33" s="96"/>
       <c r="C33" s="99"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="130" t="s">
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="135"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="122" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="96"/>
       <c r="C34" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="132"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="131"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="122"/>
       <c r="B35" s="96"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="130"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="133"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="122"/>
       <c r="B36" s="96"/>
       <c r="C36" s="99"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="137"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="130" t="s">
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="135"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="122" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="96"/>
       <c r="C37" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="132"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="131"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="122"/>
       <c r="B38" s="96"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="135"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="138"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="140"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="133"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="124"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="107"/>
       <c r="E39" s="107"/>
       <c r="F39" s="107"/>
       <c r="G39" s="108"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -8748,7 +8742,7 @@
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -8757,7 +8751,7 @@
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -8766,145 +8760,145 @@
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="126" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="120" t="s">
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120" t="s">
+      <c r="B44" s="128"/>
+      <c r="C44" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="120" t="s">
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120" t="s">
+      <c r="B45" s="128"/>
+      <c r="C45" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="141" t="s">
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141" t="s">
+      <c r="B46" s="129"/>
+      <c r="C46" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="120" t="s">
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="120" t="s">
+      <c r="B47" s="128"/>
+      <c r="C47" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="120" t="s">
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120" t="s">
+      <c r="B48" s="128"/>
+      <c r="C48" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="120" t="s">
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120" t="s">
+      <c r="B49" s="128"/>
+      <c r="C49" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="134"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="134"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="134"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="134"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-    </row>
-    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="127" t="s">
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="129"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="130" t="s">
+      <c r="B55" s="120"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="121"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="122" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="96"/>
@@ -8912,10 +8906,10 @@
       <c r="D56" s="96"/>
       <c r="E56" s="96"/>
       <c r="F56" s="96"/>
-      <c r="G56" s="142"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="130" t="s">
+      <c r="G56" s="123"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="122" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="96"/>
@@ -8923,10 +8917,10 @@
       <c r="D57" s="96"/>
       <c r="E57" s="96"/>
       <c r="F57" s="96"/>
-      <c r="G57" s="142"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="130" t="s">
+      <c r="G57" s="123"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="122" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="96"/>
@@ -8934,44 +8928,45 @@
       <c r="D58" s="96"/>
       <c r="E58" s="96"/>
       <c r="F58" s="96"/>
-      <c r="G58" s="142"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="138" t="s">
+      <c r="G58" s="123"/>
+    </row>
+    <row r="59" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="139"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="143"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -8986,30 +8981,29 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9020,20 +9014,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27160537-663B-4FCA-AA83-8887F14AC136}">
   <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
     </row>
-    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="144" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="145"/>
       <c r="D18" s="145"/>
@@ -9044,40 +9038,40 @@
       <c r="I18" s="145"/>
       <c r="J18" s="146"/>
     </row>
-    <row r="19" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="245" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="246"/>
-      <c r="D19" s="247" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="248"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="154" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="139" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="143"/>
-    </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="151" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
+    </row>
+    <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="153" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="154"/>
+      <c r="D20" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="126"/>
+    </row>
+    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="144" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C39" s="145"/>
       <c r="D39" s="145"/>
@@ -9088,13 +9082,13 @@
       <c r="I39" s="145"/>
       <c r="J39" s="146"/>
     </row>
-    <row r="40" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="147" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C40" s="148"/>
       <c r="D40" s="149" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E40" s="149"/>
       <c r="F40" s="149"/>
@@ -9128,91 +9122,91 @@
       <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="180" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-    </row>
-    <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="158" t="s">
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+    </row>
+    <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="177" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="179"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="166" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="168"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="97" t="s">
         <v>143</v>
       </c>
       <c r="E25" s="98"/>
-      <c r="F25" s="167" t="s">
+      <c r="F25" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="168"/>
-      <c r="H25" s="167" t="s">
+      <c r="G25" s="159"/>
+      <c r="H25" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="168"/>
+      <c r="I25" s="159"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
+    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
       <c r="D26" s="99"/>
       <c r="E26" s="100"/>
-      <c r="F26" s="167">
+      <c r="F26" s="158">
         <v>20</v>
       </c>
-      <c r="G26" s="168"/>
-      <c r="H26" s="167" t="s">
+      <c r="G26" s="159"/>
+      <c r="H26" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="168"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="171"/>
-      <c r="C27" s="172"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>135</v>
@@ -9234,9 +9228,9 @@
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="171"/>
-      <c r="C28" s="172"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="17" t="s">
         <v>141</v>
       </c>
@@ -9260,46 +9254,46 @@
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="165" t="s">
-        <v>176</v>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="172" t="s">
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="167">
+      <c r="H29" s="158">
         <v>20</v>
       </c>
-      <c r="I29" s="168"/>
-      <c r="J29" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="168"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="158" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="159"/>
       <c r="L29" s="17">
         <v>-0.5</v>
       </c>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="171"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="156"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="173"/>
       <c r="E30" s="55" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H30" s="32">
         <v>1</v>
@@ -9310,48 +9304,48 @@
       <c r="L30" s="60"/>
       <c r="M30" s="62"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="162" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="164"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="F31" s="169" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="171"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B67" s="158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="159"/>
+      <c r="C67" s="161"/>
       <c r="D67" s="118" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="118"/>
@@ -9364,177 +9358,177 @@
       <c r="M67" s="118"/>
       <c r="N67" s="118"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B68" s="171"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="165" t="s">
-        <v>260</v>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="162"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="172" t="s">
+        <v>254</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H68" s="96" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I68" s="96"/>
       <c r="J68" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="K68" s="167" t="s">
-        <v>266</v>
-      </c>
-      <c r="L68" s="168"/>
+        <v>256</v>
+      </c>
+      <c r="K68" s="158" t="s">
+        <v>260</v>
+      </c>
+      <c r="L68" s="159"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B69" s="171"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="166"/>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="162"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="181"/>
       <c r="E69" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
-      <c r="H69" s="169" t="s">
-        <v>268</v>
-      </c>
-      <c r="I69" s="170"/>
+      <c r="H69" s="182" t="s">
+        <v>262</v>
+      </c>
+      <c r="I69" s="183"/>
       <c r="J69" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K69" s="158" t="s">
         <v>264</v>
       </c>
-      <c r="K69" s="167" t="s">
-        <v>270</v>
-      </c>
-      <c r="L69" s="168"/>
+      <c r="L69" s="159"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B70" s="171"/>
-      <c r="C70" s="172"/>
-      <c r="D70" s="156"/>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="162"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="173"/>
       <c r="E70" s="43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G70" s="43">
         <v>1.5</v>
       </c>
       <c r="H70" s="96" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I70" s="96"/>
       <c r="J70" s="43" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K70" s="97" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L70" s="98"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B71" s="160"/>
-      <c r="C71" s="161"/>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="164"/>
+      <c r="C71" s="165"/>
       <c r="D71" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J71" s="174" t="s">
         <v>269</v>
       </c>
-      <c r="E71" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G71" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="H71" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="J71" s="181" t="s">
-        <v>275</v>
-      </c>
-      <c r="K71" s="182"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="182"/>
-      <c r="N71" s="183"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B72" s="158" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="159"/>
+      <c r="K71" s="175"/>
+      <c r="L71" s="175"/>
+      <c r="M71" s="175"/>
+      <c r="N71" s="176"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="161"/>
       <c r="D72" s="96" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E72" s="96"/>
       <c r="F72" s="96"/>
       <c r="G72" s="96"/>
       <c r="H72" s="96" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I72" s="96"/>
-      <c r="J72" s="156"/>
-      <c r="K72" s="156"/>
+      <c r="J72" s="173"/>
+      <c r="K72" s="173"/>
       <c r="L72" s="13"/>
       <c r="M72" s="61"/>
       <c r="N72" s="44"/>
     </row>
-    <row r="73" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="160"/>
-      <c r="C73" s="161"/>
-      <c r="D73" s="162" t="s">
-        <v>169</v>
-      </c>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
-      <c r="I73" s="163"/>
-      <c r="J73" s="163"/>
-      <c r="K73" s="163"/>
+    <row r="73" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="164"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="170"/>
+      <c r="F73" s="170"/>
+      <c r="G73" s="170"/>
+      <c r="H73" s="170"/>
+      <c r="I73" s="170"/>
+      <c r="J73" s="170"/>
+      <c r="K73" s="170"/>
       <c r="L73" s="94"/>
-      <c r="M73" s="163"/>
-      <c r="N73" s="164"/>
-    </row>
-    <row r="74" spans="2:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="158" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="159"/>
-      <c r="D74" s="177" t="s">
-        <v>185</v>
-      </c>
-      <c r="E74" s="178"/>
-      <c r="F74" s="178"/>
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
-      <c r="I74" s="178"/>
-      <c r="J74" s="178"/>
-      <c r="K74" s="178"/>
-      <c r="L74" s="178"/>
-      <c r="M74" s="178"/>
-      <c r="N74" s="179"/>
-    </row>
-    <row r="75" spans="2:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="171"/>
-      <c r="C75" s="172"/>
-      <c r="D75" s="173" t="s">
-        <v>179</v>
-      </c>
-      <c r="E75" s="174"/>
+      <c r="M73" s="170"/>
+      <c r="N73" s="171"/>
+    </row>
+    <row r="74" spans="2:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="161"/>
+      <c r="D74" s="166" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="168"/>
+    </row>
+    <row r="75" spans="2:14" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="162"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="177" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="178"/>
       <c r="F75" s="17" t="s">
         <v>135</v>
       </c>
@@ -9555,59 +9549,59 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B76" s="160"/>
-      <c r="C76" s="161"/>
-      <c r="D76" s="175"/>
-      <c r="E76" s="176"/>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="164"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="179"/>
+      <c r="E76" s="180"/>
       <c r="F76" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J76" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="J76" s="17" t="s">
-        <v>184</v>
       </c>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="158" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="159"/>
-      <c r="D77" s="177" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="178"/>
-      <c r="L77" s="178"/>
-      <c r="M77" s="178"/>
-      <c r="N77" s="179"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B78" s="171"/>
-      <c r="C78" s="172"/>
+    <row r="77" spans="2:14" ht="52.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="160" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="161"/>
+      <c r="D77" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
+      <c r="G77" s="167"/>
+      <c r="H77" s="167"/>
+      <c r="I77" s="167"/>
+      <c r="J77" s="167"/>
+      <c r="K77" s="167"/>
+      <c r="L77" s="167"/>
+      <c r="M77" s="167"/>
+      <c r="N77" s="168"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="162"/>
+      <c r="C78" s="163"/>
       <c r="D78" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
@@ -9618,13 +9612,13 @@
       <c r="M78" s="34"/>
       <c r="N78" s="35"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B79" s="171"/>
-      <c r="C79" s="172"/>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="162"/>
+      <c r="C79" s="163"/>
       <c r="D79" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="E79" s="131"/>
+        <v>184</v>
+      </c>
+      <c r="E79" s="130"/>
       <c r="F79" s="98"/>
       <c r="G79" s="13" t="s">
         <v>135</v>
@@ -9645,11 +9639,11 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B80" s="171"/>
-      <c r="C80" s="172"/>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="162"/>
+      <c r="C80" s="163"/>
       <c r="D80" s="99"/>
-      <c r="E80" s="136"/>
+      <c r="E80" s="134"/>
       <c r="F80" s="100"/>
       <c r="G80" s="43">
         <v>0</v>
@@ -9670,14 +9664,14 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B81" s="160"/>
-      <c r="C81" s="161"/>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" s="164"/>
+      <c r="C81" s="165"/>
       <c r="D81" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -9689,13 +9683,13 @@
       <c r="M81" s="34"/>
       <c r="N81" s="35"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B82" s="158" t="s">
-        <v>195</v>
-      </c>
-      <c r="C82" s="159"/>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="161"/>
       <c r="D82" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
@@ -9708,14 +9702,14 @@
       <c r="M82" s="34"/>
       <c r="N82" s="35"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B83" s="160"/>
-      <c r="C83" s="161"/>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="164"/>
+      <c r="C83" s="165"/>
       <c r="D83" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -9728,13 +9722,13 @@
       <c r="N83" s="35"/>
       <c r="O83" s="29"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B84" s="158" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="159"/>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="161"/>
       <c r="D84" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
@@ -9748,14 +9742,14 @@
       <c r="N84" s="35"/>
       <c r="O84" s="29"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B85" s="160"/>
-      <c r="C85" s="161"/>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="164"/>
+      <c r="C85" s="165"/>
       <c r="D85" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -9769,6 +9763,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="D73:N73"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="B74:C76"/>
+    <mergeCell ref="D75:E76"/>
+    <mergeCell ref="D77:N77"/>
+    <mergeCell ref="D79:F80"/>
+    <mergeCell ref="B77:C81"/>
+    <mergeCell ref="D74:N74"/>
     <mergeCell ref="B23:N23"/>
     <mergeCell ref="D67:N67"/>
     <mergeCell ref="D25:E26"/>
@@ -9784,25 +9797,6 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="B67:C71"/>
     <mergeCell ref="J71:N71"/>
-    <mergeCell ref="B84:C85"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="B74:C76"/>
-    <mergeCell ref="D75:E76"/>
-    <mergeCell ref="D77:N77"/>
-    <mergeCell ref="D79:F80"/>
-    <mergeCell ref="B77:C81"/>
-    <mergeCell ref="D74:N74"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="B72:C73"/>
-    <mergeCell ref="D73:N73"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9814,14 +9808,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
   <dimension ref="B15:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="144" t="s">
         <v>38</v>
       </c>
@@ -9836,24 +9830,24 @@
       <c r="K16" s="145"/>
       <c r="L16" s="146"/>
     </row>
-    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="213" t="s">
+      <c r="D17" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="214"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="194"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
@@ -9868,9 +9862,9 @@
       <c r="I18" s="118"/>
       <c r="J18" s="118"/>
       <c r="K18" s="118"/>
-      <c r="L18" s="215"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="184"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
@@ -9885,13 +9879,13 @@
       <c r="I19" s="118"/>
       <c r="J19" s="118"/>
       <c r="K19" s="118"/>
-      <c r="L19" s="215"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="216" t="s">
+      <c r="L19" s="184"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="217"/>
+      <c r="C20" s="186"/>
       <c r="D20" s="118" t="s">
         <v>45</v>
       </c>
@@ -9902,11 +9896,11 @@
       <c r="I20" s="118"/>
       <c r="J20" s="118"/>
       <c r="K20" s="118"/>
-      <c r="L20" s="215"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="218"/>
-      <c r="C21" s="219"/>
+      <c r="L20" s="184"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="187"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="118" t="s">
         <v>46</v>
       </c>
@@ -9917,24 +9911,24 @@
       <c r="I21" s="118"/>
       <c r="J21" s="118"/>
       <c r="K21" s="118"/>
-      <c r="L21" s="215"/>
-    </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="220"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="222"/>
-      <c r="F22" s="222"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="222"/>
-      <c r="J22" s="222"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="223"/>
-    </row>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L21" s="184"/>
+    </row>
+    <row r="22" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="189"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="191" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="192"/>
+    </row>
+    <row r="23" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
@@ -9947,30 +9941,30 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
     </row>
-    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="184" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="195" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="196"/>
-      <c r="F24" s="197">
+    <row r="24" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="201" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="202"/>
+      <c r="D24" s="207" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="208"/>
+      <c r="F24" s="209">
         <v>2</v>
       </c>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
-    </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="206"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="189" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="190"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="211"/>
+    </row>
+    <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="203"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="206"/>
       <c r="F25" s="68" t="s">
         <v>114</v>
       </c>
@@ -9987,13 +9981,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="189" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="190"/>
+    <row r="26" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="205"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="205" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="206"/>
       <c r="F26" s="38">
         <v>0</v>
       </c>
@@ -10010,69 +10004,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="184" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="208"/>
-      <c r="D28" s="195" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="196"/>
-      <c r="F28" s="195" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" s="196"/>
-    </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="189"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="197">
+    <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="201" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="202"/>
+      <c r="D28" s="207" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="208"/>
+      <c r="F28" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" s="208"/>
+    </row>
+    <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="205"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="209">
         <v>1</v>
       </c>
-      <c r="E29" s="199"/>
-      <c r="F29" s="197">
+      <c r="E29" s="211"/>
+      <c r="F29" s="209">
         <v>4</v>
       </c>
-      <c r="G29" s="199"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="210" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="211"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="212"/>
-    </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="203" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="205"/>
-    </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="184" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="185"/>
-      <c r="D33" s="184" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="185"/>
+      <c r="G29" s="211"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="195" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+    </row>
+    <row r="31" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="198" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
+    </row>
+    <row r="32" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="201" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="213"/>
+      <c r="D33" s="201" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="213"/>
       <c r="F33" s="76" t="s">
         <v>114</v>
       </c>
@@ -10089,11 +10083,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="206"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="190"/>
+    <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="203"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="206"/>
       <c r="F34" s="50">
         <v>1</v>
       </c>
@@ -10110,13 +10104,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="206"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="184" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="185"/>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="203"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="201" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="213"/>
       <c r="F35" s="76" t="s">
         <v>114</v>
       </c>
@@ -10133,34 +10127,34 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="206"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="190"/>
+    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="203"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="206"/>
       <c r="F36" s="50" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="206"/>
-      <c r="C37" s="207"/>
-      <c r="D37" s="206" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="207"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="203"/>
+      <c r="C37" s="204"/>
+      <c r="D37" s="203" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="204"/>
       <c r="F37" s="76" t="s">
         <v>114</v>
       </c>
@@ -10177,11 +10171,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="206"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
+    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="203"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
       <c r="F38" s="77">
         <v>1</v>
       </c>
@@ -10198,13 +10192,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="206"/>
-      <c r="C39" s="207"/>
-      <c r="D39" s="184" t="s">
-        <v>286</v>
-      </c>
-      <c r="E39" s="185"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="203"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="201" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="213"/>
       <c r="F39" s="76" t="s">
         <v>58</v>
       </c>
@@ -10221,11 +10215,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="189"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="190"/>
+    <row r="40" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="205"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="206"/>
       <c r="F40" s="78">
         <v>0.4</v>
       </c>
@@ -10242,38 +10236,38 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="184" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="185"/>
-      <c r="D42" s="195" t="s">
-        <v>288</v>
-      </c>
-      <c r="E42" s="196"/>
+    <row r="41" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="201" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="213"/>
+      <c r="D42" s="207" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="208"/>
       <c r="F42" s="81">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="206"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="195" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="196"/>
+    <row r="43" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="203"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="207" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="208"/>
       <c r="F43" s="82">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="206"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="184" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="203"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="185"/>
+      <c r="E44" s="213"/>
       <c r="F44" s="83" t="s">
         <v>114</v>
       </c>
@@ -10290,11 +10284,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="206"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="190"/>
+    <row r="45" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="203"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="206"/>
       <c r="F45" s="36">
         <v>1</v>
       </c>
@@ -10311,13 +10305,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="206"/>
-      <c r="C46" s="207"/>
-      <c r="D46" s="184" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="185"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="203"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="201" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="213"/>
       <c r="F46" s="83" t="s">
         <v>114</v>
       </c>
@@ -10334,13 +10328,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="206"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="189" t="s">
-        <v>291</v>
-      </c>
-      <c r="E47" s="190"/>
+    <row r="47" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="203"/>
+      <c r="C47" s="204"/>
+      <c r="D47" s="205" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="206"/>
       <c r="F47" s="36">
         <v>-0.5</v>
       </c>
@@ -10357,37 +10351,37 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="206"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="184" t="s">
-        <v>292</v>
-      </c>
-      <c r="E48" s="185"/>
-      <c r="F48" s="200">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="203"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="201" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" s="213"/>
+      <c r="F48" s="214">
         <v>-1</v>
       </c>
-      <c r="G48" s="201"/>
-      <c r="H48" s="201"/>
-      <c r="I48" s="201"/>
-      <c r="J48" s="202"/>
-    </row>
-    <row r="49" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="189"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="189" t="s">
-        <v>291</v>
-      </c>
-      <c r="E49" s="190"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="204"/>
-      <c r="H49" s="204"/>
-      <c r="I49" s="204"/>
-      <c r="J49" s="205"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G48" s="215"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="216"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="205"/>
+      <c r="C49" s="206"/>
+      <c r="D49" s="205" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="206"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="200"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="103" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C50" s="104"/>
       <c r="D50" s="104"/>
@@ -10398,22 +10392,22 @@
       <c r="I50" s="104"/>
       <c r="J50" s="105"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="194" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="135"/>
-    </row>
-    <row r="52" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="133"/>
+    </row>
+    <row r="52" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="106" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C52" s="107"/>
       <c r="D52" s="107"/>
@@ -10424,7 +10418,7 @@
       <c r="I52" s="107"/>
       <c r="J52" s="108"/>
     </row>
-    <row r="53" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -10435,39 +10429,39 @@
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="184" t="s">
-        <v>295</v>
-      </c>
-      <c r="C54" s="185"/>
-      <c r="D54" s="195" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54" s="196"/>
+    <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="213"/>
+      <c r="D54" s="207" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="208"/>
       <c r="F54" s="81">
         <v>-1</v>
       </c>
-      <c r="G54" s="195" t="s">
+      <c r="G54" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="196"/>
+      <c r="H54" s="208"/>
       <c r="I54" s="81">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="189"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="197" t="s">
-        <v>296</v>
-      </c>
-      <c r="E55" s="198"/>
-      <c r="F55" s="198"/>
-      <c r="G55" s="198"/>
-      <c r="H55" s="198"/>
-      <c r="I55" s="199"/>
-    </row>
-    <row r="56" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="205"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="209" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="210"/>
+      <c r="F55" s="210"/>
+      <c r="G55" s="210"/>
+      <c r="H55" s="210"/>
+      <c r="I55" s="211"/>
+    </row>
+    <row r="56" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -10478,46 +10472,63 @@
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="184" t="s">
-        <v>297</v>
-      </c>
-      <c r="C57" s="185"/>
-      <c r="D57" s="186" t="s">
-        <v>298</v>
-      </c>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
-      <c r="J57" s="188"/>
-    </row>
-    <row r="58" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="189" t="s">
-        <v>299</v>
-      </c>
-      <c r="C58" s="190"/>
-      <c r="D58" s="191" t="s">
-        <v>300</v>
-      </c>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="193"/>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="213"/>
+      <c r="D57" s="217" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="218"/>
+      <c r="F57" s="218"/>
+      <c r="G57" s="218"/>
+      <c r="H57" s="218"/>
+      <c r="I57" s="218"/>
+      <c r="J57" s="219"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="205" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" s="206"/>
+      <c r="D58" s="220" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="221"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="221"/>
+      <c r="H58" s="221"/>
+      <c r="I58" s="221"/>
+      <c r="J58" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:J49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B42:C49"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="B33:C40"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="D35:E36"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="B24:C26"/>
@@ -10530,31 +10541,14 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="B33:C40"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:J49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B42:C49"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10566,86 +10560,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618D004-48C5-4283-AC4B-B7089F5CE503}">
   <dimension ref="B18:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="184" t="s">
+    <row r="18" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="185"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="213"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="162" t="s">
+      <c r="D20" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="164"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="234" t="s">
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="171"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="235"/>
-      <c r="D21" s="162" t="s">
+      <c r="C21" s="226"/>
+      <c r="D21" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="164"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="236"/>
-      <c r="C22" s="237"/>
-      <c r="D22" s="162" t="s">
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="171"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="227"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="234" t="s">
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="171"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="235"/>
+      <c r="C23" s="226"/>
       <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
@@ -10659,27 +10653,27 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="236"/>
-      <c r="C24" s="237"/>
-      <c r="D24" s="162" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="227"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="164"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="234" t="s">
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="171"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="235"/>
+      <c r="C25" s="226"/>
       <c r="D25" s="17" t="s">
         <v>33</v>
       </c>
@@ -10693,34 +10687,34 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="236"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="162" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="227"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="164"/>
-    </row>
-    <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="184" t="s">
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="171"/>
+    </row>
+    <row r="27" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="D28" s="238" t="s">
+      <c r="C28" s="231"/>
+      <c r="D28" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
       <c r="H28" s="46" t="s">
         <v>114</v>
       </c>
@@ -10737,9 +10731,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="206"/>
-      <c r="C29" s="230"/>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="203"/>
+      <c r="C29" s="232"/>
       <c r="D29" s="96" t="s">
         <v>121</v>
       </c>
@@ -10762,130 +10756,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B30" s="206"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="232" t="s">
-        <v>202</v>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="203"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="234" t="s">
+        <v>198</v>
       </c>
       <c r="E30" s="96" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F30" s="96"/>
       <c r="G30" s="96"/>
       <c r="H30" s="96"/>
       <c r="I30" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J30" s="96"/>
       <c r="K30" s="96">
         <v>-2</v>
       </c>
-      <c r="L30" s="142"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="206"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="232"/>
+      <c r="L30" s="123"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="203"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="234"/>
       <c r="E31" s="96"/>
       <c r="F31" s="96"/>
       <c r="G31" s="96"/>
       <c r="H31" s="96"/>
       <c r="I31" s="96" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J31" s="96"/>
       <c r="K31" s="96">
         <v>1</v>
       </c>
-      <c r="L31" s="142"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="206"/>
-      <c r="C32" s="230"/>
-      <c r="D32" s="232"/>
+      <c r="L31" s="123"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="203"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="234"/>
       <c r="E32" s="96" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F32" s="96"/>
       <c r="G32" s="96" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H32" s="96"/>
       <c r="I32" s="96" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J32" s="96"/>
       <c r="K32" s="96" t="s">
-        <v>304</v>
-      </c>
-      <c r="L32" s="142"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="206"/>
-      <c r="C33" s="230"/>
-      <c r="D33" s="232" t="s">
-        <v>205</v>
-      </c>
-      <c r="E33" s="224" t="s">
-        <v>305</v>
-      </c>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
+        <v>298</v>
+      </c>
+      <c r="L32" s="123"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="203"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="234" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="229" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="229"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="229"/>
       <c r="I33" s="96" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J33" s="96"/>
       <c r="K33" s="96">
         <v>-1</v>
       </c>
-      <c r="L33" s="142"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="206"/>
-      <c r="C34" s="230"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
+      <c r="L33" s="123"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="203"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="229"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
       <c r="I34" s="96" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J34" s="96"/>
       <c r="K34" s="96">
         <v>5</v>
       </c>
-      <c r="L34" s="142"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="206"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="232"/>
+      <c r="L34" s="123"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="203"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="234"/>
       <c r="E35" s="96" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F35" s="96"/>
       <c r="G35" s="32" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H35" s="96" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I35" s="96"/>
-      <c r="J35" s="224" t="s">
-        <v>308</v>
-      </c>
-      <c r="K35" s="224"/>
-      <c r="L35" s="225"/>
-    </row>
-    <row r="36" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="206"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="232"/>
+      <c r="J35" s="229" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" s="229"/>
+      <c r="L35" s="230"/>
+    </row>
+    <row r="36" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="203"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="234"/>
       <c r="E36" s="96" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F36" s="96"/>
       <c r="G36" s="32">
@@ -10893,24 +10887,24 @@
       </c>
       <c r="H36" s="96"/>
       <c r="I36" s="96"/>
-      <c r="J36" s="224" t="s">
-        <v>310</v>
-      </c>
-      <c r="K36" s="224"/>
-      <c r="L36" s="225"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="206"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="232"/>
+      <c r="J36" s="229" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" s="229"/>
+      <c r="L36" s="230"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="203"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="234"/>
       <c r="E37" s="96" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F37" s="96">
         <v>1</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>114</v>
@@ -10928,14 +10922,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="206"/>
-      <c r="C38" s="230"/>
-      <c r="D38" s="232"/>
+    <row r="38" spans="2:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="203"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="234"/>
       <c r="E38" s="96"/>
       <c r="F38" s="96"/>
       <c r="G38" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H38" s="32">
         <v>0</v>
@@ -10953,178 +10947,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="206"/>
-      <c r="C39" s="230"/>
-      <c r="D39" s="232" t="s">
-        <v>207</v>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="203"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="234" t="s">
+        <v>203</v>
       </c>
       <c r="E39" s="96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F39" s="96"/>
       <c r="G39" s="96"/>
       <c r="H39" s="96"/>
       <c r="I39" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J39" s="96"/>
       <c r="K39" s="96">
         <v>-1</v>
       </c>
-      <c r="L39" s="142"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="206"/>
-      <c r="C40" s="230"/>
-      <c r="D40" s="232"/>
+      <c r="L39" s="123"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="203"/>
+      <c r="C40" s="232"/>
+      <c r="D40" s="234"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
       <c r="G40" s="96"/>
       <c r="H40" s="96"/>
       <c r="I40" s="96" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J40" s="96"/>
       <c r="K40" s="96">
         <v>4</v>
       </c>
-      <c r="L40" s="142"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="206"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="228" t="s">
-        <v>209</v>
+      <c r="L40" s="123"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="203"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="237" t="s">
+        <v>205</v>
       </c>
       <c r="E41" s="96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F41" s="96"/>
       <c r="G41" s="96"/>
       <c r="H41" s="96"/>
       <c r="I41" s="96" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J41" s="96"/>
       <c r="K41" s="96">
         <v>-2</v>
       </c>
-      <c r="L41" s="142"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="206"/>
-      <c r="C42" s="230"/>
-      <c r="D42" s="228"/>
+      <c r="L41" s="123"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="203"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="237"/>
       <c r="E42" s="96"/>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
       <c r="H42" s="96"/>
       <c r="I42" s="96" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J42" s="96"/>
       <c r="K42" s="96">
         <v>2</v>
       </c>
-      <c r="L42" s="142"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="206"/>
-      <c r="C43" s="230"/>
+      <c r="L42" s="123"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="203"/>
+      <c r="C43" s="232"/>
       <c r="D43" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="224" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="224"/>
-      <c r="G43" s="224"/>
-      <c r="H43" s="224"/>
+        <v>207</v>
+      </c>
+      <c r="E43" s="229" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="229"/>
+      <c r="G43" s="229"/>
+      <c r="H43" s="229"/>
       <c r="I43" s="96" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J43" s="96"/>
       <c r="K43" s="96">
         <v>-10</v>
       </c>
-      <c r="L43" s="142"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="206"/>
-      <c r="C44" s="230"/>
+      <c r="L43" s="123"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="203"/>
+      <c r="C44" s="232"/>
       <c r="D44" s="112"/>
-      <c r="E44" s="224"/>
-      <c r="F44" s="224"/>
-      <c r="G44" s="224"/>
-      <c r="H44" s="224"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="229"/>
+      <c r="H44" s="229"/>
       <c r="I44" s="96" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J44" s="96"/>
       <c r="K44" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="L44" s="142"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="206"/>
-      <c r="C45" s="230"/>
+        <v>209</v>
+      </c>
+      <c r="L44" s="123"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="203"/>
+      <c r="C45" s="232"/>
       <c r="D45" s="112"/>
-      <c r="E45" s="224"/>
-      <c r="F45" s="224"/>
-      <c r="G45" s="224"/>
-      <c r="H45" s="224"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="229"/>
+      <c r="G45" s="229"/>
+      <c r="H45" s="229"/>
       <c r="I45" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J45" s="96"/>
-      <c r="K45" s="224" t="s">
-        <v>315</v>
-      </c>
-      <c r="L45" s="225"/>
-    </row>
-    <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="189"/>
-      <c r="C46" s="231"/>
-      <c r="D46" s="233"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="226"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="226"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="226"/>
-      <c r="L46" s="227"/>
+      <c r="K45" s="229" t="s">
+        <v>309</v>
+      </c>
+      <c r="L45" s="230"/>
+    </row>
+    <row r="46" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="205"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="236"/>
+      <c r="G46" s="236"/>
+      <c r="H46" s="236"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="236"/>
+      <c r="L46" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E30:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="B28:C46"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -11141,19 +11122,32 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="E43:H46"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="E30:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11166,41 +11160,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
   <dimension ref="B18:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:O27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="240"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="240"/>
-      <c r="K19" s="240"/>
-      <c r="L19" s="240"/>
-      <c r="M19" s="240"/>
-      <c r="N19" s="240"/>
-      <c r="O19" s="240"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="239"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
+      <c r="E19" s="239"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="239"/>
+      <c r="M19" s="239"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="239"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="249"/>
       <c r="D20" s="118" t="s">
         <v>47</v>
       </c>
@@ -11216,11 +11210,11 @@
       <c r="N20" s="118"/>
       <c r="O20" s="118"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="96" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="96"/>
+      <c r="C21" s="234"/>
       <c r="D21" s="118" t="s">
         <v>49</v>
       </c>
@@ -11236,61 +11230,61 @@
       <c r="N21" s="118"/>
       <c r="O21" s="118"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
       <c r="D22" s="96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="96"/>
       <c r="G22" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="96"/>
       <c r="I22" s="96"/>
       <c r="J22" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K22" s="96"/>
       <c r="L22" s="96"/>
       <c r="M22" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N22" s="96"/>
       <c r="O22" s="96"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="234"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="96"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H23" s="96"/>
       <c r="I23" s="96"/>
       <c r="J23" s="96" t="s">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="K23" s="96"/>
       <c r="L23" s="96"/>
-      <c r="M23" s="239" t="s">
-        <v>153</v>
+      <c r="M23" s="241" t="s">
+        <v>311</v>
       </c>
       <c r="N23" s="96"/>
       <c r="O23" s="96"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="153" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="153"/>
+      <c r="C24" s="250"/>
       <c r="D24" s="118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E24" s="118"/>
       <c r="F24" s="118"/>
@@ -11304,11 +11298,11 @@
       <c r="N24" s="118"/>
       <c r="O24" s="118"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
       <c r="D25" s="96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
@@ -11328,37 +11322,37 @@
       <c r="N25" s="96"/>
       <c r="O25" s="96"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="250"/>
+      <c r="C26" s="250"/>
       <c r="D26" s="96" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="96"/>
       <c r="G26" s="96" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" s="96"/>
       <c r="I26" s="96"/>
       <c r="J26" s="96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K26" s="96"/>
       <c r="L26" s="96"/>
       <c r="M26" s="96" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N26" s="96"/>
       <c r="O26" s="96"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="153"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="250"/>
       <c r="D27" s="118" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E27" s="118"/>
       <c r="F27" s="118"/>
@@ -11372,37 +11366,37 @@
       <c r="N27" s="118"/>
       <c r="O27" s="118"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="250"/>
+      <c r="C28" s="250"/>
       <c r="D28" s="96" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E28" s="96"/>
       <c r="F28" s="96"/>
       <c r="G28" s="96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H28" s="96"/>
       <c r="I28" s="96"/>
       <c r="J28" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K28" s="96"/>
       <c r="L28" s="96"/>
       <c r="M28" s="96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N28" s="96"/>
       <c r="O28" s="96"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="153" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="153"/>
+      <c r="C29" s="250"/>
       <c r="D29" s="96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E29" s="96"/>
       <c r="F29" s="96"/>
@@ -11416,11 +11410,11 @@
       <c r="N29" s="96"/>
       <c r="O29" s="96"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
       <c r="D30" s="96" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E30" s="96"/>
       <c r="F30" s="96"/>
@@ -11434,11 +11428,11 @@
       <c r="N30" s="96"/>
       <c r="O30" s="96"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="250"/>
+      <c r="C31" s="250"/>
       <c r="D31" s="96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E31" s="96"/>
       <c r="F31" s="96"/>
@@ -11452,31 +11446,31 @@
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="250"/>
+      <c r="C32" s="250"/>
       <c r="D32" s="96" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="96"/>
       <c r="G32" s="96" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H32" s="96"/>
       <c r="I32" s="96"/>
       <c r="J32" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" s="96"/>
       <c r="L32" s="96"/>
       <c r="M32" s="96" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
@@ -11492,7 +11486,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="29"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
@@ -11508,7 +11502,7 @@
       <c r="N35" s="29"/>
       <c r="O35" s="29"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
@@ -11524,7 +11518,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
@@ -11540,7 +11534,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
@@ -11558,6 +11552,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -11574,26 +11588,6 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11606,17 +11600,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
   <dimension ref="B36:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="8.796875" customWidth="1"/>
+    <col min="16" max="16" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="36" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="242" t="s">
         <v>52</v>
       </c>
@@ -11631,28 +11625,28 @@
       <c r="K37" s="243"/>
       <c r="L37" s="244"/>
     </row>
-    <row r="38" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="151" t="s">
+    <row r="38" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="245" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="102"/>
-      <c r="D38" s="156" t="s">
+      <c r="D38" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="157"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="152" t="s">
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="246"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="153"/>
+      <c r="C39" s="240"/>
       <c r="D39" s="96" t="s">
         <v>55</v>
       </c>
@@ -11663,57 +11657,57 @@
       <c r="I39" s="96"/>
       <c r="J39" s="96"/>
       <c r="K39" s="96"/>
-      <c r="L39" s="142"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="152"/>
-      <c r="C40" s="153"/>
+      <c r="L39" s="123"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="247"/>
+      <c r="C40" s="240"/>
       <c r="D40" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" s="96"/>
       <c r="F40" s="96" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G40" s="96"/>
       <c r="H40" s="96" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I40" s="96"/>
       <c r="J40" s="96" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="K40" s="96"/>
-      <c r="L40" s="142"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="152"/>
-      <c r="C41" s="153"/>
+      <c r="L40" s="123"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="247"/>
+      <c r="C41" s="240"/>
       <c r="D41" s="96" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E41" s="96"/>
       <c r="F41" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G41" s="96"/>
       <c r="H41" s="96" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I41" s="96"/>
       <c r="J41" s="96">
         <v>1</v>
       </c>
       <c r="K41" s="96"/>
-      <c r="L41" s="142"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="130" t="s">
-        <v>214</v>
+      <c r="L41" s="123"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="C42" s="96"/>
       <c r="D42" s="96" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E42" s="96"/>
       <c r="F42" s="96"/>
@@ -11722,57 +11716,57 @@
       <c r="I42" s="96"/>
       <c r="J42" s="96"/>
       <c r="K42" s="96"/>
-      <c r="L42" s="142"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="130"/>
+      <c r="L42" s="123"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="122"/>
       <c r="C43" s="96"/>
       <c r="D43" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" s="96"/>
       <c r="F43" s="96" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G43" s="96"/>
       <c r="H43" s="96" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I43" s="96"/>
       <c r="J43" s="96" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K43" s="96"/>
-      <c r="L43" s="142"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="130"/>
+      <c r="L43" s="123"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="122"/>
       <c r="C44" s="96"/>
       <c r="D44" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E44" s="96"/>
       <c r="F44" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G44" s="96"/>
       <c r="H44" s="96" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I44" s="96"/>
       <c r="J44" s="96" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K44" s="96"/>
-      <c r="L44" s="142"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="130" t="s">
-        <v>220</v>
+      <c r="L44" s="123"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="122" t="s">
+        <v>215</v>
       </c>
       <c r="C45" s="96"/>
       <c r="D45" s="96" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
@@ -11781,53 +11775,53 @@
       <c r="I45" s="96"/>
       <c r="J45" s="96"/>
       <c r="K45" s="96"/>
-      <c r="L45" s="142"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="130"/>
+      <c r="L45" s="123"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="122"/>
       <c r="C46" s="96"/>
       <c r="D46" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" s="96"/>
       <c r="F46" s="96" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G46" s="96"/>
       <c r="H46" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="96"/>
       <c r="J46" s="96" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K46" s="96"/>
-      <c r="L46" s="142"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="130"/>
+      <c r="L46" s="123"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="122"/>
       <c r="C47" s="96"/>
       <c r="D47" s="96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E47" s="96"/>
       <c r="F47" s="96" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G47" s="96"/>
       <c r="H47" s="96" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I47" s="96"/>
       <c r="J47" s="96" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K47" s="96"/>
-      <c r="L47" s="142"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="241" t="s">
-        <v>250</v>
+      <c r="L47" s="123"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="248" t="s">
+        <v>244</v>
       </c>
       <c r="C48" s="96"/>
       <c r="D48" s="96" t="s">
@@ -11840,79 +11834,78 @@
       <c r="I48" s="96"/>
       <c r="J48" s="96"/>
       <c r="K48" s="96"/>
-      <c r="L48" s="142"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="130"/>
+      <c r="L48" s="123"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="122"/>
       <c r="C49" s="96"/>
-      <c r="D49" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="17"/>
+      <c r="D49" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="159"/>
       <c r="F49" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G49" s="96"/>
       <c r="H49" s="96" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I49" s="96"/>
       <c r="J49" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K49" s="96"/>
-      <c r="L49" s="142"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="130"/>
+      <c r="L49" s="123"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="122"/>
       <c r="C50" s="96"/>
       <c r="D50" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E50" s="96"/>
       <c r="F50" s="96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G50" s="96"/>
       <c r="H50" s="96"/>
       <c r="I50" s="96"/>
       <c r="J50" s="96"/>
       <c r="K50" s="96"/>
-      <c r="L50" s="142"/>
-    </row>
-    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139" t="s">
-        <v>249</v>
-      </c>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="139"/>
-      <c r="L51" s="143"/>
+      <c r="L50" s="123"/>
+    </row>
+    <row r="51" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="124"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125" t="s">
+        <v>311</v>
+      </c>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
+  <mergeCells count="43">
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
     <mergeCell ref="B48:C51"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -11929,18 +11922,20 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
